--- a/data/centres_adjust_or_keep.xlsx
+++ b/data/centres_adjust_or_keep.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -262,16 +262,19 @@
     <t>Lundi/Mardi/Mercredi</t>
   </si>
   <si>
+    <t>Lundi, Mardi, Mercredi, Vendredi</t>
+  </si>
+  <si>
+    <t>Lundi,Mardi,Mercredi,Vendredi (?)</t>
+  </si>
+  <si>
+    <t>Toulouse/Negogousses(Les Arenes)</t>
+  </si>
+  <si>
+    <t>63 Rue de Negogousses, 31100 - Toulouse</t>
+  </si>
+  <si>
     <t>Lundi, Mardi, Mercredi, Jeudi, Vendredi</t>
-  </si>
-  <si>
-    <t>Lundi,Mardi,Mercredi,Jeudi,Vendredi (?)</t>
-  </si>
-  <si>
-    <t>Toulouse/Negogousses(Les Arenes)</t>
-  </si>
-  <si>
-    <t>63 Rue de Negogousses, 31100 - Toulouse</t>
   </si>
   <si>
     <t>Lundi,Vendredi</t>
@@ -1801,10 +1804,10 @@
         <v>1.4113336</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -1812,10 +1815,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>25</v>
@@ -1851,10 +1854,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>20</v>
